--- a/old_database/crypto/fastqFiles/fastq_480.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_480.xlsx
@@ -37,7 +37,7 @@
     <t>03.10.11</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_480</t>
   </si>
   <si>
     <t>sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence.451_1_30.fq</t>

--- a/old_database/crypto/fastqFiles/fastq_480.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_480.xlsx
@@ -46,40 +46,40 @@
     <t xml:space="preserve">Retrofitted_480</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_451_1_30.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_451_1_37CO2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_451_2_30.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_451_2_37CO2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_ada2_1_30.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_ada2_1_37CO2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_ada2_2_30.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_ada2_2_37CO2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_cir1_1_30.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_cir1_1_37CO2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_cir1_2_30.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_480_samples/fastq_reformat/s_2_withindex_sequence_cir1_2_37CO2.fastq.gz</t>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_451_1_30.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_451_1_37CO2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_451_2_30.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_451_2_37CO2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_ada2_1_30.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_ada2_1_37CO2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_ada2_2_30.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_ada2_2_37CO2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_cir1_1_30.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_cir1_1_37CO2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_cir1_2_30.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence/run_480_samples/s_2_withindex_sequence_cir1_2_37CO2.fastq.gz</t>
   </si>
 </sst>
 </file>
